--- a/nlp/scripts/preprocess_stopwords.xlsx
+++ b/nlp/scripts/preprocess_stopwords.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>we Robot tests (Assigning) studying Assigning Assigning Assign all operators</t>
+          <t>Running Robot tests (Assigning) studying Assigning generously Assign all operators Assign all operators for the remaining users</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['we', 'Robot', 'tests', '(', 'Assigning', ')', 'studying', 'Assigning', 'Assigning', 'Assign', 'all', 'operators']</t>
+          <t>['Running', 'Robot', 'tests', '(', 'Assigning', ')', 'studying', 'Assigning', 'generously', 'Assign', 'all', 'operators', 'Assign', 'all', 'operators', 'for', 'the', 'remaining', 'users']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['we', 'Robot', 'tests', 'Assigning', 'studying', 'Assigning', 'Assigning', 'Assign', 'all', 'operators']</t>
+          <t>['Running', 'Robot', 'tests', 'Assigning', 'studying', 'Assigning', 'generously', 'Assign', 'all', 'operators', 'Assign', 'all', 'operators', 'for', 'the', 'remaining', 'users']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Robot', 'tests', 'Assigning', 'studying', 'Assigning', 'Assigning', 'Assign', 'operators']</t>
+          <t>['Running', 'Robot', 'tests', 'Assigning', 'studying', 'Assigning', 'generously', 'Assign', 'operators', 'Assign', 'operators', 'remaining', 'users']</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>321</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>277</v>
+        <v>137</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1016,17 +1016,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>We why Reports tests (Cleaning Jobs) I Me Verify "Download Report" button is disabled by default and the empty PDF message in the container is shown Input worksite, robot and month, then select first report shown, assert API call, download the report then verify the report has been downloaded (Excluding CC) I Me Input company, worksite, robot and month but do not select any report, verify "Download Report" button is disabled and correct empty PDF frame (Excluding CC) Input company, worksite, robot and month, download the first report, verify successful api call and file download user 32131 use213123r 5434634</t>
+          <t>Reports tests (Cleaning Jobs) I Me Verify "Download Report" button is disabled by default and the empty PDF message in the container is shown Input worksite, robot and month, then select first report shown, assert API call, download the report then verify the report has been downloaded (Excluding CC) I Me Input company, worksite, robot and month but do not select any report, verify "Download Report" button is disabled and correct empty PDF frame (Excluding CC) Input company, worksite, robot and month, download the first report, verify successful api call and file download user 32131 use213123r 5434634</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['We', 'why', 'Reports', 'tests', '(', 'Cleaning', 'Jobs', ')', 'I', 'Me', 'Verify', '``', 'Download', 'Report', "''", 'button', 'is', 'disabled', 'by', 'default', 'and', 'the', 'empty', 'PDF', 'message', 'in', 'the', 'container', 'is', 'shown', 'Input', 'worksite', ',', 'robot', 'and', 'month', ',', 'then', 'select', 'first', 'report', 'shown', ',', 'assert', 'API', 'call', ',', 'download', 'the', 'report', 'then', 'verify', 'the', 'report', 'has', 'been', 'downloaded', '(', 'Excluding', 'CC', ')', 'I', 'Me', 'Input', 'company', ',', 'worksite', ',', 'robot', 'and', 'month', 'but', 'do', 'not', 'select', 'any', 'report', ',', 'verify', '``', 'Download', 'Report', "''", 'button', 'is', 'disabled', 'and', 'correct', 'empty', 'PDF', 'frame', '(', 'Excluding', 'CC', ')', 'Input', 'company', ',', 'worksite', ',', 'robot', 'and', 'month', ',', 'download', 'the', 'first', 'report', ',', 'verify', 'successful', 'api', 'call', 'and', 'file', 'download', 'user', '32131', 'use213123r', '5434634']</t>
+          <t>['Reports', 'tests', '(', 'Cleaning', 'Jobs', ')', 'I', 'Me', 'Verify', '``', 'Download', 'Report', "''", 'button', 'is', 'disabled', 'by', 'default', 'and', 'the', 'empty', 'PDF', 'message', 'in', 'the', 'container', 'is', 'shown', 'Input', 'worksite', ',', 'robot', 'and', 'month', ',', 'then', 'select', 'first', 'report', 'shown', ',', 'assert', 'API', 'call', ',', 'download', 'the', 'report', 'then', 'verify', 'the', 'report', 'has', 'been', 'downloaded', '(', 'Excluding', 'CC', ')', 'I', 'Me', 'Input', 'company', ',', 'worksite', ',', 'robot', 'and', 'month', 'but', 'do', 'not', 'select', 'any', 'report', ',', 'verify', '``', 'Download', 'Report', "''", 'button', 'is', 'disabled', 'and', 'correct', 'empty', 'PDF', 'frame', '(', 'Excluding', 'CC', ')', 'Input', 'company', ',', 'worksite', ',', 'robot', 'and', 'month', ',', 'download', 'the', 'first', 'report', ',', 'verify', 'successful', 'api', 'call', 'and', 'file', 'download', 'user', '32131', 'use213123r', '5434634']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['We', 'why', 'Reports', 'tests', 'Cleaning', 'Jobs', 'I', 'Me', 'Verify', 'Download', 'Report', 'button', 'is', 'disabled', 'by', 'default', 'and', 'the', 'empty', 'PDF', 'message', 'in', 'the', 'container', 'is', 'shown', 'Input', 'worksite', 'robot', 'and', 'month', 'then', 'select', 'first', 'report', 'shown', 'assert', 'API', 'call', 'download', 'the', 'report', 'then', 'verify', 'the', 'report', 'has', 'been', 'downloaded', 'Excluding', 'CC', 'I', 'Me', 'Input', 'company', 'worksite', 'robot', 'and', 'month', 'but', 'do', 'not', 'select', 'any', 'report', 'verify', 'Download', 'Report', 'button', 'is', 'disabled', 'and', 'correct', 'empty', 'PDF', 'frame', 'Excluding', 'CC', 'Input', 'company', 'worksite', 'robot', 'and', 'month', 'download', 'the', 'first', 'report', 'verify', 'successful', 'api', 'call', 'and', 'file', 'download', 'user', '32131', 'use213123r', '5434634']</t>
+          <t>['Reports', 'tests', 'Cleaning', 'Jobs', 'I', 'Me', 'Verify', 'Download', 'Report', 'button', 'is', 'disabled', 'by', 'default', 'and', 'the', 'empty', 'PDF', 'message', 'in', 'the', 'container', 'is', 'shown', 'Input', 'worksite', 'robot', 'and', 'month', 'then', 'select', 'first', 'report', 'shown', 'assert', 'API', 'call', 'download', 'the', 'report', 'then', 'verify', 'the', 'report', 'has', 'been', 'downloaded', 'Excluding', 'CC', 'I', 'Me', 'Input', 'company', 'worksite', 'robot', 'and', 'month', 'but', 'do', 'not', 'select', 'any', 'report', 'verify', 'Download', 'Report', 'button', 'is', 'disabled', 'and', 'correct', 'empty', 'PDF', 'frame', 'Excluding', 'CC', 'Input', 'company', 'worksite', 'robot', 'and', 'month', 'download', 'the', 'first', 'report', 'verify', 'successful', 'api', 'call', 'and', 'file', 'download', 'user', '32131', 'use213123r', '5434634']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>170</v>
+        <v>341</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>339</v>
+        <v>166</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>310</v>
+        <v>147</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>358</v>
+        <v>143</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>37</v>
+        <v>283</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>321</v>
+        <v>178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>88</v>
+        <v>314</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>87</v>
+        <v>352</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>158</v>
+        <v>286</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>185</v>
+        <v>289</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>88</v>
+        <v>330</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>99</v>
+        <v>285</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>359</v>
+        <v>288</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>349</v>
+        <v>275</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>255</v>
+        <v>118</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
